--- a/BD_Less/Sem2/Sem2.xlsx
+++ b/BD_Less/Sem2/Sem2.xlsx
@@ -2102,7 +2102,7 @@
   <dimension ref="B1:N1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="M30" sqref="M30:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -2734,8 +2734,8 @@
       <c r="L30" t="s">
         <v>57</v>
       </c>
-      <c r="M30" s="11" t="s">
-        <v>57</v>
+      <c r="M30" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>43</v>
@@ -2745,8 +2745,8 @@
       <c r="L31" t="s">
         <v>57</v>
       </c>
-      <c r="M31" t="s">
-        <v>57</v>
+      <c r="M31" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="N31" s="8" t="s">
         <v>43</v>
@@ -2759,8 +2759,8 @@
       <c r="L32" t="s">
         <v>57</v>
       </c>
-      <c r="M32" t="s">
-        <v>57</v>
+      <c r="M32" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="N32" s="5" t="s">
         <v>45</v>
@@ -2791,8 +2791,8 @@
       <c r="L33" t="s">
         <v>57</v>
       </c>
-      <c r="M33" t="s">
-        <v>57</v>
+      <c r="M33" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="N33" s="8" t="s">
         <v>41</v>
@@ -2823,8 +2823,8 @@
       <c r="L34" t="s">
         <v>57</v>
       </c>
-      <c r="M34" t="s">
-        <v>57</v>
+      <c r="M34" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>45</v>
@@ -2855,8 +2855,8 @@
       <c r="L35" t="s">
         <v>57</v>
       </c>
-      <c r="M35" t="s">
-        <v>57</v>
+      <c r="M35" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="N35" s="8" t="s">
         <v>41</v>
